--- a/meta/en/6-2-1.xlsx
+++ b/meta/en/6-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -100,24 +100,6 @@
     <t>6.2. By 2030, achieve access to adequate and equitable sanitation and hygiene for all and end open defecation, paying special attention to the needs of women and girls and those in vulnerable situations</t>
   </si>
   <si>
-    <t>6.2.1. Proportion of population using safely managed sanitation services, including a handwashing facility with soap and water</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The Proportion of population using safely managed sanitation services, including a hand-washing facility with soap and water is currently being measured by the proportion of the population using an improved basic sanitation facility at the household level which is not shared with other households and where excreta is safely disposed in situ or treated off-site. ‘Improved’ source defined the same as used for MDG monitoring i.e. flush or pour flush toilets to sewer systems, septic tanks or pit latrines, ventilated improved pit latrines, pit latrines with a slab, and composting toilets.
 Handwashing facility: a device to contain, transport or regulate the flow of water to facilitate handwashing with soap and water in the household.</t>
   </si>
@@ -154,6 +136,24 @@
   <si>
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io
 http://www.stat.kg/media/files/d0f77c65-07d9-469d-879a-84dc5aae8833.pdf</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>6.2.1 Proportion of population using (a) safely managed sanitation services and (b) a hand-washing facility with soap and water</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="273" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
